--- a/April_datasets_plan.xlsx
+++ b/April_datasets_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9C4E4B-D171-4FEC-A3B7-4D843E3492D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5664DD7-18CC-47BC-B370-93FB39BA6C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13536" yWindow="12" windowWidth="9504" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="94">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,276 +78,277 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴帆</t>
+  </si>
+  <si>
+    <t>GSE129519</t>
+  </si>
+  <si>
+    <t>GSE99846</t>
+  </si>
+  <si>
+    <t>GSE121416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭超</t>
+  </si>
+  <si>
+    <t>GSE137350</t>
+  </si>
+  <si>
+    <t>GSE139412</t>
+  </si>
+  <si>
+    <t>GSE80168</t>
+  </si>
+  <si>
+    <t>E-MTAB-3857</t>
+  </si>
+  <si>
+    <t>E-MTAB-3929</t>
+  </si>
+  <si>
+    <t>E-MTAB-4888</t>
+  </si>
+  <si>
+    <t>E-MTAB-6879</t>
+  </si>
+  <si>
+    <t>E-MTAB-6701_E-MTAB-6678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-MTAB-7365_E-MTAB-7376</t>
+  </si>
+  <si>
+    <t>GSE115218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE115795</t>
+  </si>
+  <si>
+    <t>GSE97882</t>
+  </si>
+  <si>
+    <t>GSE98971</t>
+  </si>
+  <si>
+    <t>GSE84498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE92842</t>
+  </si>
+  <si>
+    <t>GSE102077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE74639</t>
+  </si>
+  <si>
+    <t>GSE135500</t>
+  </si>
+  <si>
+    <t>张洪睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE113112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘博欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE138651</t>
+  </si>
+  <si>
+    <t>GSE135701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘铠源</t>
+  </si>
+  <si>
+    <t>GSE138852</t>
+  </si>
+  <si>
+    <t>GSE111839</t>
+  </si>
+  <si>
+    <t>GSE74767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GSE81444</t>
+  </si>
+  <si>
+    <t>王朝阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结算，但未入库，还需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE134809</t>
+  </si>
+  <si>
+    <t>陈淳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE111360 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢爱民</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GSE130812_GSE137165</t>
+  </si>
+  <si>
+    <t>GSE90734</t>
+  </si>
+  <si>
+    <t>丁鸿儒</t>
+  </si>
+  <si>
+    <t>标注中（5月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE130114</t>
+  </si>
+  <si>
+    <t>梁浩虹</t>
+  </si>
+  <si>
+    <t>GSE120974</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靳娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE121478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE121861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-MTAB-6072_E-MTAB-7311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门语实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE14580</t>
+  </si>
+  <si>
+    <t>GSE134520</t>
+  </si>
+  <si>
+    <t>GSE124821</t>
+  </si>
+  <si>
+    <t>GSE139324</t>
+  </si>
+  <si>
+    <t>GSE139555</t>
+  </si>
+  <si>
+    <t>GSE98638</t>
+  </si>
+  <si>
+    <t>待下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE108989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE124822</t>
+  </si>
+  <si>
+    <t>GSE72056</t>
+  </si>
+  <si>
+    <t>GSE140807</t>
+  </si>
+  <si>
+    <t>GSE126480</t>
+  </si>
+  <si>
+    <t>GSE123837</t>
+  </si>
+  <si>
+    <t>GSE135710</t>
+  </si>
+  <si>
+    <t>GSE114000</t>
+  </si>
+  <si>
+    <t>GSE137869</t>
+  </si>
+  <si>
+    <t>GSE141457</t>
+  </si>
+  <si>
+    <t>GSE132166</t>
+  </si>
+  <si>
+    <t>GSE139522</t>
+  </si>
+  <si>
+    <t>二审情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三审情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE111014</t>
+  </si>
+  <si>
+    <t>待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GSE128889</t>
-  </si>
-  <si>
-    <t>吴帆</t>
-  </si>
-  <si>
-    <t>GSE129519</t>
-  </si>
-  <si>
-    <t>GSE99846</t>
-  </si>
-  <si>
-    <t>GSE121416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭超</t>
-  </si>
-  <si>
-    <t>GSE137350</t>
-  </si>
-  <si>
-    <t>GSE139412</t>
-  </si>
-  <si>
-    <t>GSE80168</t>
-  </si>
-  <si>
-    <t>E-MTAB-3857</t>
-  </si>
-  <si>
-    <t>E-MTAB-3929</t>
-  </si>
-  <si>
-    <t>E-MTAB-4888</t>
-  </si>
-  <si>
-    <t>E-MTAB-6879</t>
-  </si>
-  <si>
-    <t>E-MTAB-6701_E-MTAB-6678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-MTAB-7365_E-MTAB-7376</t>
-  </si>
-  <si>
-    <t>GSE115218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE115795</t>
-  </si>
-  <si>
-    <t>GSE97882</t>
-  </si>
-  <si>
-    <t>GSE98971</t>
-  </si>
-  <si>
-    <t>GSE84498</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标注中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE92842</t>
-  </si>
-  <si>
-    <t>GSE102077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE74639</t>
-  </si>
-  <si>
-    <t>GSE135500</t>
-  </si>
-  <si>
-    <t>张洪睿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE113112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘博欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE138651</t>
-  </si>
-  <si>
-    <t>GSE135701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘铠源</t>
-  </si>
-  <si>
-    <t>GSE138852</t>
-  </si>
-  <si>
-    <t>GSE111839</t>
-  </si>
-  <si>
-    <t>GSE74767</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GSE81444</t>
-  </si>
-  <si>
-    <t>王朝阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已结算，但未入库，还需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE134809</t>
-  </si>
-  <si>
-    <t>陈淳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE111360 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢爱民</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GSE130812_GSE137165</t>
-  </si>
-  <si>
-    <t>GSE90734</t>
-  </si>
-  <si>
-    <t>丁鸿儒</t>
-  </si>
-  <si>
-    <t>标注中（5月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE130114</t>
-  </si>
-  <si>
-    <t>梁浩虹</t>
-  </si>
-  <si>
-    <t>GSE120974</t>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靳娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待分发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE121478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE121861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-MTAB-6072_E-MTAB-7311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门语实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE14580</t>
-  </si>
-  <si>
-    <t>GSE134520</t>
-  </si>
-  <si>
-    <t>GSE124821</t>
-  </si>
-  <si>
-    <t>GSE139324</t>
-  </si>
-  <si>
-    <t>GSE139555</t>
-  </si>
-  <si>
-    <t>GSE98638</t>
-  </si>
-  <si>
-    <t>待下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE108989</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE124822</t>
-  </si>
-  <si>
-    <t>GSE72056</t>
-  </si>
-  <si>
-    <t>GSE140807</t>
-  </si>
-  <si>
-    <t>GSE126480</t>
-  </si>
-  <si>
-    <t>GSE123837</t>
-  </si>
-  <si>
-    <t>GSE135710</t>
-  </si>
-  <si>
-    <t>GSE114000</t>
-  </si>
-  <si>
-    <t>GSE137869</t>
-  </si>
-  <si>
-    <t>GSE141457</t>
-  </si>
-  <si>
-    <t>GSE132166</t>
-  </si>
-  <si>
-    <t>GSE139522</t>
-  </si>
-  <si>
-    <t>二审情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三审情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE111014</t>
-  </si>
-  <si>
-    <t>待审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -766,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -783,18 +793,20 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -807,18 +819,20 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -831,18 +845,20 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -855,18 +871,20 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -879,18 +897,20 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -903,18 +923,20 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -927,18 +949,20 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -951,18 +975,20 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -975,18 +1001,20 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -999,18 +1027,20 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1023,18 +1053,20 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1047,18 +1079,20 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1071,18 +1105,20 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1095,16 +1131,16 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1121,16 +1157,16 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -1147,16 +1183,16 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -1173,16 +1209,16 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1199,18 +1235,20 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1223,18 +1261,20 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1247,18 +1287,20 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1271,18 +1313,20 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1295,18 +1339,20 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1319,18 +1365,20 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1343,18 +1391,20 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
+      <c r="E26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1367,16 +1417,16 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>12</v>
@@ -1393,16 +1443,16 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>12</v>
@@ -1419,18 +1469,20 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1443,18 +1495,20 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1466,19 +1520,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1486,107 +1543,122 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1594,16 +1666,16 @@
         <v>30404002</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1611,16 +1683,16 @@
         <v>30737144</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1628,16 +1700,16 @@
         <v>30721153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1645,13 +1717,13 @@
         <v>31067475</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1659,13 +1731,13 @@
         <v>31348891</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1673,13 +1745,13 @@
         <v>31730857</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1687,13 +1759,13 @@
         <v>31924475</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1701,13 +1773,13 @@
         <v>32103181</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1715,13 +1787,13 @@
         <v>28622514</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1729,13 +1801,13 @@
         <v>31341169</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1743,10 +1815,10 @@
         <v>32203468</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,10 +1829,10 @@
         <v>32111241</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,10 +1843,10 @@
         <v>32179751</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,10 +1857,10 @@
         <v>32157096</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,10 +1871,10 @@
         <v>32111241</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,10 +1885,10 @@
         <v>32144411</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,10 +1899,10 @@
         <v>32142650</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,10 +1913,10 @@
         <v>32139688</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,10 +1927,10 @@
         <v>32109414</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,10 +1941,10 @@
         <v>32109377</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,10 +1955,10 @@
         <v>32103181</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,10 +1969,10 @@
         <v>32066987</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,10 +1983,10 @@
         <v>32066986</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,10 +1997,10 @@
         <v>31996669</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/April_datasets_plan.xlsx
+++ b/April_datasets_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5664DD7-18CC-47BC-B370-93FB39BA6C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA225A2C-4DF7-4DCF-A7C1-8A30F575E7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,85 +270,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GSE14580</t>
+  </si>
+  <si>
+    <t>GSE134520</t>
+  </si>
+  <si>
+    <t>GSE124821</t>
+  </si>
+  <si>
+    <t>GSE139324</t>
+  </si>
+  <si>
+    <t>GSE139555</t>
+  </si>
+  <si>
+    <t>GSE98638</t>
+  </si>
+  <si>
+    <t>待下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE108989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE124822</t>
+  </si>
+  <si>
+    <t>GSE72056</t>
+  </si>
+  <si>
+    <t>GSE140807</t>
+  </si>
+  <si>
+    <t>GSE126480</t>
+  </si>
+  <si>
+    <t>GSE123837</t>
+  </si>
+  <si>
+    <t>GSE135710</t>
+  </si>
+  <si>
+    <t>GSE114000</t>
+  </si>
+  <si>
+    <t>GSE137869</t>
+  </si>
+  <si>
+    <t>GSE141457</t>
+  </si>
+  <si>
+    <t>GSE132166</t>
+  </si>
+  <si>
+    <t>GSE139522</t>
+  </si>
+  <si>
+    <t>二审情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三审情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE111014</t>
+  </si>
+  <si>
+    <t>待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE128889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>门语实</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSE14580</t>
-  </si>
-  <si>
-    <t>GSE134520</t>
-  </si>
-  <si>
-    <t>GSE124821</t>
-  </si>
-  <si>
-    <t>GSE139324</t>
-  </si>
-  <si>
-    <t>GSE139555</t>
-  </si>
-  <si>
-    <t>GSE98638</t>
-  </si>
-  <si>
-    <t>待下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE108989</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE124822</t>
-  </si>
-  <si>
-    <t>GSE72056</t>
-  </si>
-  <si>
-    <t>GSE140807</t>
-  </si>
-  <si>
-    <t>GSE126480</t>
-  </si>
-  <si>
-    <t>GSE123837</t>
-  </si>
-  <si>
-    <t>GSE135710</t>
-  </si>
-  <si>
-    <t>GSE114000</t>
-  </si>
-  <si>
-    <t>GSE137869</t>
-  </si>
-  <si>
-    <t>GSE141457</t>
-  </si>
-  <si>
-    <t>GSE132166</t>
-  </si>
-  <si>
-    <t>GSE139522</t>
-  </si>
-  <si>
-    <t>二审情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三审情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE111014</t>
-  </si>
-  <si>
-    <t>待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE128889</t>
+    <t>吕晓荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴若尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张萌栩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,14 +734,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -748,13 +768,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -776,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -793,7 +813,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -802,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -828,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -854,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -880,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -906,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -932,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -958,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -984,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1010,7 +1030,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1036,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1062,7 +1082,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1088,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1114,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1140,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1166,7 +1186,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -1192,7 +1212,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -1218,7 +1238,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1529,7 +1549,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -1552,7 +1572,7 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
@@ -1663,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>30404002</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>32179751</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>65</v>
@@ -1680,16 +1700,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>30737144</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>68</v>
+        <v>32157096</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,16 +1723,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>30721153</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>32111241</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,13 +1737,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>31067475</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>71</v>
+        <v>32144411</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,13 +1760,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>31348891</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>70</v>
+        <v>32142650</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,13 +1783,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>31730857</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>72</v>
+        <v>32139688</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,13 +1806,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>31924475</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>32109414</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,10 +1829,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>32103181</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>74</v>
+        <v>32109377</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>65</v>
@@ -1784,13 +1846,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>28622514</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>32103181</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,13 +1869,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5">
-        <v>31341169</v>
+        <v>32066987</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,13 +1883,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="5">
-        <v>32203468</v>
+        <v>32066986</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,13 +1897,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5">
-        <v>32111241</v>
+        <v>31996669</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,13 +1911,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="5">
-        <v>32179751</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>80</v>
+        <v>30404002</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="5">
-        <v>32157096</v>
+        <v>30737144</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,13 +1939,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="5">
-        <v>32111241</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>79</v>
+        <v>30721153</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,13 +1953,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5">
-        <v>32144411</v>
+        <v>31067475</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,13 +1967,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5">
-        <v>32142650</v>
+        <v>31348891</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,13 +1981,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5">
-        <v>32139688</v>
+        <v>31730857</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,13 +1995,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5">
-        <v>32109414</v>
+        <v>31924475</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,13 +2009,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="5">
-        <v>32109377</v>
+        <v>32103181</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,13 +2023,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5">
-        <v>32103181</v>
+        <v>28622514</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,13 +2037,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5">
-        <v>32066987</v>
+        <v>31341169</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,13 +2051,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="5">
-        <v>32066986</v>
+        <v>32203468</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,13 +2065,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="5">
-        <v>31996669</v>
+        <v>32111241</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/April_datasets_plan.xlsx
+++ b/April_datasets_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA225A2C-4DF7-4DCF-A7C1-8A30F575E7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6E119-0C3C-4A89-B3A1-7EDBB8A00258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,51 +254,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待分发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE121478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE121861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-MTAB-6072_E-MTAB-7311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE14580</t>
-  </si>
-  <si>
     <t>GSE134520</t>
   </si>
   <si>
-    <t>GSE124821</t>
-  </si>
-  <si>
-    <t>GSE139324</t>
-  </si>
-  <si>
     <t>GSE139555</t>
   </si>
   <si>
-    <t>GSE98638</t>
-  </si>
-  <si>
     <t>待下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSE108989</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE124822</t>
-  </si>
-  <si>
     <t>GSE72056</t>
   </si>
   <si>
@@ -323,12 +288,6 @@
     <t>GSE141457</t>
   </si>
   <si>
-    <t>GSE132166</t>
-  </si>
-  <si>
-    <t>GSE139522</t>
-  </si>
-  <si>
     <t>二审情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,9 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSE111014</t>
-  </si>
-  <si>
     <t>待审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +321,52 @@
   </si>
   <si>
     <t>张萌栩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE125970</t>
+  </si>
+  <si>
+    <t>GSE132802</t>
+  </si>
+  <si>
+    <t>GSE136103</t>
+  </si>
+  <si>
+    <t>GSE120221</t>
+  </si>
+  <si>
+    <t>GSE135922</t>
+  </si>
+  <si>
+    <t>GSE131685</t>
+  </si>
+  <si>
+    <t>高佳宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭慧双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴若尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李长宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕晓荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +442,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,14 +730,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
     <col min="7" max="7" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -768,13 +765,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -796,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -813,7 +810,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -822,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -848,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -874,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -900,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -926,7 +923,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -952,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -978,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1004,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1030,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1056,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1082,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1108,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1134,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1160,7 +1157,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1175,7 +1172,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>30104629</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -1212,7 +1211,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -1238,7 +1237,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1390,7 +1389,7 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1416,7 +1415,7 @@
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1549,7 +1548,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -1572,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
@@ -1628,7 +1627,7 @@
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1648,7 +1647,7 @@
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1685,14 +1684,20 @@
       <c r="B38" s="5">
         <v>32179751</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>79</v>
+      <c r="C38" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,20 +1707,20 @@
       <c r="B39" s="5">
         <v>32157096</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>95</v>
+      <c r="E39" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,10 +1731,10 @@
         <v>32111241</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,20 +1744,20 @@
       <c r="B41" s="5">
         <v>32144411</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>81</v>
+      <c r="C41" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,20 +1767,20 @@
       <c r="B42" s="5">
         <v>32142650</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,20 +1790,20 @@
       <c r="B43" s="5">
         <v>32139688</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>83</v>
+      <c r="C43" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,20 +1813,20 @@
       <c r="B44" s="5">
         <v>32109414</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,14 +1836,20 @@
       <c r="B45" s="5">
         <v>32109377</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>85</v>
+      <c r="C45" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,231 +1859,240 @@
       <c r="B46" s="5">
         <v>32103181</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>73</v>
+      <c r="C46" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>32066987</v>
-      </c>
+      <c r="B47"/>
       <c r="C47" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>32066986</v>
-      </c>
+      <c r="B48"/>
       <c r="C48" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>31996669</v>
-      </c>
+      <c r="B49"/>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
-        <v>30404002</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>67</v>
+      <c r="B50"/>
+      <c r="C50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
-        <v>30737144</v>
-      </c>
+      <c r="B51"/>
       <c r="C51" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
-        <v>30721153</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>66</v>
+      <c r="B52"/>
+      <c r="C52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
-        <v>31067475</v>
-      </c>
+      <c r="B53"/>
       <c r="C53" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
-        <v>31348891</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="D54" s="5"/>
+      <c r="E54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
-        <v>31730857</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="D55" s="5"/>
+      <c r="E55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
-        <v>31924475</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="D56" s="5"/>
+      <c r="E56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
-        <v>32103181</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="D57" s="5"/>
+      <c r="E57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
-        <v>28622514</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="D58" s="5"/>
+      <c r="E58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
-        <v>31341169</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="D59" s="5"/>
+      <c r="E59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
-        <v>32203468</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="D60" s="5"/>
+      <c r="E60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
-        <v>32111241</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B61"/>
+      <c r="D61" s="5"/>
+      <c r="E61"/>
+      <c r="G61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/April_datasets_plan.xlsx
+++ b/April_datasets_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6E119-0C3C-4A89-B3A1-7EDBB8A00258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907A297-2C72-4B8B-981B-1C7BFB887B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="144">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,13 +260,6 @@
     <t>GSE139555</t>
   </si>
   <si>
-    <t>待下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSE72056</t>
-  </si>
-  <si>
     <t>GSE140807</t>
   </si>
   <si>
@@ -358,15 +351,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李长宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕晓荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下为新发数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10X datasets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_1_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_2_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_3_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_4_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_33_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_32_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_5_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_6_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_31_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_30_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_29_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_28_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_27_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_26_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_25_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_24_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_23_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_22_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_21_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_20_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_19_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_18_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_17_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_7_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_8_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_9_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_10_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_11_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_12_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_13_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_14_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_15_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_16_10x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈淳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门语实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈睿豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁浩虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>郭超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李长宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕晓荣</t>
+    <t>待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在infinity上完成auto_calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张萌栩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯文宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +637,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -740,6 +940,7 @@
     <col min="3" max="3" width="31" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="5"/>
     <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -765,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -793,12 +994,14 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -810,7 +1013,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -819,12 +1022,14 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -845,12 +1050,14 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -871,13 +1078,17 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -897,13 +1108,17 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -923,13 +1138,17 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -949,13 +1168,17 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -975,13 +1198,17 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1001,13 +1228,17 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1027,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1053,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1079,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1105,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1131,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1157,13 +1388,17 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1185,13 +1420,17 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1211,15 +1450,19 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1237,13 +1480,17 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1548,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -1571,7 +1818,7 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
@@ -1677,173 +1924,165 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>32179751</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>32157096</v>
+        <v>32179751</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>32111241</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <v>32157096</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5">
         <v>32144411</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5">
         <v>32142650</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5">
         <v>32139688</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>32109414</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5">
         <v>32109377</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -1854,7 +2093,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>32103181</v>
@@ -1863,31 +2102,31 @@
         <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -1898,17 +2137,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -1919,17 +2158,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -1940,17 +2179,17 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -1961,17 +2200,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -1982,17 +2221,17 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -2003,17 +2242,17 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53"/>
       <c r="C53" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -2024,75 +2263,718 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54"/>
-      <c r="D54" s="5"/>
-      <c r="E54"/>
-      <c r="G54"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <v>31675496</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55"/>
-      <c r="D55" s="5"/>
-      <c r="E55"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56"/>
-      <c r="D56" s="5"/>
-      <c r="E56"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57"/>
-      <c r="D57" s="5"/>
-      <c r="E57"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58"/>
-      <c r="D58" s="5"/>
-      <c r="E58"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59"/>
-      <c r="D59" s="5"/>
-      <c r="E59"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60"/>
-      <c r="D60" s="5"/>
-      <c r="E60"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B61"/>
-      <c r="D61" s="5"/>
-      <c r="E61"/>
-      <c r="G61"/>
+      <c r="B62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/April_datasets_plan.xlsx
+++ b/April_datasets_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengx\Desktop\公司\workflow\收包\interns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907A297-2C72-4B8B-981B-1C7BFB887B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F47DA-51C7-4287-A420-C5D552871596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="177">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,192 +367,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陈淳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门语实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈睿豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁浩虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在infinity上完成auto_calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张萌栩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯文宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peripheral blood mononuclear cells (PBMCs) from a healthy donor 鈥?Chromium Connect (channel 1)</t>
+  </si>
+  <si>
+    <t>5k Peripheral blood mononuclear cells (PBMCs) from a healthy donor (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>10k PBMCs from a Healthy Donor (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>Peripheral blood mononuclear cells (PBMCs) from a healthy donor 鈥?Manual (channel 1)</t>
+  </si>
+  <si>
+    <t>Peripheral blood mononuclear cells (PBMCs) from a healthy donor 鈥?Chromium Connect (channel 5)</t>
+  </si>
+  <si>
+    <t>2k Brain Nuclei from an Adult Mouse (&gt;8 weeks)</t>
+  </si>
+  <si>
+    <t>5k Peripheral blood mononuclear cells (PBMCs) from a healthy donor with cell surface proteins (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>5k Cells from a combined cortex, hippocampus and subventricular zone of an E18 mouse (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>1k Brain Nuclei from an E18 Mouse</t>
+  </si>
+  <si>
+    <t>10k Heart Cells from an E18 mouse (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>1k Heart Cells from an E18 mouse (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>10k PBMCs from a Healthy Donor  鈥?Gene Expression and Cell Surface Protein</t>
+  </si>
+  <si>
+    <t>3k Pan T Cells from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>4k Pan T Cells from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>2k Fixed Brain Cells from an E18 Mouse</t>
+  </si>
+  <si>
+    <t>8k PBMCs from a Healthy Donor</t>
+  </si>
+  <si>
+    <t>2k Brain Cells from an E18 Mouse</t>
+  </si>
+  <si>
+    <t>5k Peripheral blood mononuclear cells (PBMCs) from a healthy donor (Next GEM)</t>
+  </si>
+  <si>
+    <t>10k Brain Cells from an E18 Mouse (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>1k Brain Cells from an E18 Mouse (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>5k Cells from a combined cortex, hippocampus and subventricular zone of an E18 mouse (Next GEM)</t>
+  </si>
+  <si>
+    <t>1k Brain Cells from an E18 Mouse (v2 chemistry)</t>
+  </si>
+  <si>
+    <t>1k PBMCs from a Healthy Donor (v2 chemistry)</t>
+  </si>
+  <si>
+    <t>1k Heart Cells from an E18 mouse (v2 chemistry)</t>
+  </si>
+  <si>
+    <t>5k Peripheral blood mononuclear cells (PBMCs) from a healthy donor with cell surface proteins (Next GEM)</t>
+  </si>
+  <si>
+    <t>Aggregate of t_3k and t_4k</t>
+  </si>
+  <si>
+    <t>Aggregate of 8 Chromium Connect channels and 8 manual channels</t>
+  </si>
+  <si>
+    <t>1k PBMCs from a Healthy Donor (v3 chemistry)</t>
+  </si>
+  <si>
+    <t>2k Fixed (for 6 days at -80潞C) Brain Cells from an E18 Mouse</t>
+  </si>
+  <si>
+    <t>Peripheral blood mononuclear cells (PBMCs) from a healthy donor 鈥?Manual (channel 5)</t>
+  </si>
+  <si>
+    <t>10k Cells from a MALT Tumor 鈥?Gene Expression and Cell Surface Protein</t>
+  </si>
+  <si>
+    <t>1k Brain Cells from an E18 Mouse</t>
+  </si>
+  <si>
+    <t>1k PBMCs from a Healthy Donor  鈥?Gene Expression and Cell Surface Protein</t>
+  </si>
+  <si>
     <t>No_1_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No_2_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No_3_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No_4_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No_5_10x</t>
+  </si>
+  <si>
+    <t>No_6_10x</t>
+  </si>
+  <si>
+    <t>No_7_10x</t>
+  </si>
+  <si>
+    <t>No_8_10x</t>
+  </si>
+  <si>
+    <t>No_9_10x</t>
+  </si>
+  <si>
+    <t>No_10_10x</t>
+  </si>
+  <si>
+    <t>No_11_10x</t>
+  </si>
+  <si>
+    <t>No_12_10x</t>
+  </si>
+  <si>
+    <t>No_13_10x</t>
+  </si>
+  <si>
+    <t>No_14_10x</t>
+  </si>
+  <si>
+    <t>No_15_10x</t>
+  </si>
+  <si>
+    <t>No_16_10x</t>
+  </si>
+  <si>
+    <t>No_17_10x</t>
+  </si>
+  <si>
+    <t>No_18_10x</t>
+  </si>
+  <si>
+    <t>No_19_10x</t>
+  </si>
+  <si>
+    <t>No_20_10x</t>
+  </si>
+  <si>
+    <t>No_21_10x</t>
+  </si>
+  <si>
+    <t>No_22_10x</t>
+  </si>
+  <si>
+    <t>No_23_10x</t>
+  </si>
+  <si>
+    <t>No_24_10x</t>
+  </si>
+  <si>
+    <t>No_25_10x</t>
+  </si>
+  <si>
+    <t>No_26_10x</t>
+  </si>
+  <si>
+    <t>No_27_10x</t>
+  </si>
+  <si>
+    <t>No_28_10x</t>
+  </si>
+  <si>
+    <t>No_29_10x</t>
+  </si>
+  <si>
+    <t>No_30_10x</t>
+  </si>
+  <si>
+    <t>No_31_10x</t>
+  </si>
+  <si>
+    <t>No_32_10x</t>
   </si>
   <si>
     <t>No_33_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_32_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_5_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_6_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_31_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_30_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_29_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_28_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_27_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_26_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_25_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_24_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_23_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_22_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_21_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_20_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_19_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_18_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_17_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_7_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_8_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_9_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_10_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_11_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_12_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_13_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_14_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_15_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No_16_10x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈淳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门语实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈睿豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标注中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁浩虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在infinity上完成auto_calculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张萌栩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯文宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1028,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1056,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1084,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1114,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1144,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1174,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1204,10 +1273,10 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1234,10 +1303,10 @@
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1394,10 +1463,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1426,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1456,12 +1525,12 @@
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -1486,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1925,7 +1994,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="10"/>
@@ -2156,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2168,7 +2237,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -2177,7 +2246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2198,7 +2267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2210,7 +2279,7 @@
         <v>78</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -2219,7 +2288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2240,7 +2309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2261,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2269,711 +2338,810 @@
         <v>31675496</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>97</v>
+      <c r="C55" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K55" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>98</v>
+      <c r="C56" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K56" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>99</v>
+      <c r="C57" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K57" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K58" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>103</v>
+      <c r="C59" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K59" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>104</v>
+      <c r="C60" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K60" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>120</v>
+      <c r="C61" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K61" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>121</v>
+      <c r="C62" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K62" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>122</v>
+      <c r="C63" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>123</v>
+      <c r="C64" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>124</v>
+      <c r="C65" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>125</v>
+      <c r="C66" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>126</v>
+      <c r="C67" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>127</v>
+      <c r="C68" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>128</v>
+      <c r="C69" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>129</v>
+      <c r="C70" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>119</v>
+      <c r="C71" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>118</v>
+      <c r="C72" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>117</v>
+      <c r="C73" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>116</v>
+      <c r="C74" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>115</v>
+      <c r="C75" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>114</v>
+      <c r="C76" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>113</v>
+      <c r="C77" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>112</v>
+      <c r="C78" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>111</v>
+      <c r="C79" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>110</v>
+      <c r="C80" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>109</v>
+      <c r="C81" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>108</v>
+      <c r="C82" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>107</v>
+      <c r="C83" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>106</v>
+      <c r="C84" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>105</v>
+      <c r="C85" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="F86" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>101</v>
+      <c r="C87" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
